--- a/Data/SNV_filtering_inputs/PillarProject_filtering/BRCA2/20250822_BRCA2_PillarProjectRef.xlsx
+++ b/Data/SNV_filtering_inputs/PillarProject_filtering/BRCA2/20250822_BRCA2_PillarProjectRef.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:D361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,15 +463,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32319064</v>
+        <v>32319063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -483,15 +483,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32319065</v>
+        <v>32319064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -503,15 +503,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32319066</v>
+        <v>32319065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -523,15 +523,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32319067</v>
+        <v>32319066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -543,15 +543,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32319068</v>
+        <v>32319067</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -563,15 +563,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32319069</v>
+        <v>32319068</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -583,15 +583,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32319070</v>
+        <v>32319069</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -603,15 +603,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32319071</v>
+        <v>32319070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -627,11 +627,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32319072</v>
+        <v>32319071</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -643,15 +643,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32319073</v>
+        <v>32319072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -663,15 +663,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32319074</v>
+        <v>32319073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -683,15 +683,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32319075</v>
+        <v>32319074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -703,15 +703,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32319076</v>
+        <v>32319075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -723,15 +723,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32319077</v>
+        <v>32319076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Exon</t>
+          <t>Intron</t>
         </is>
       </c>
     </row>
@@ -743,11 +743,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32319078</v>
+        <v>32319077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32319079</v>
+        <v>32319078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -783,11 +783,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>32319080</v>
+        <v>32319079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -803,11 +803,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>32319081</v>
+        <v>32319080</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32319082</v>
+        <v>32319081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32319083</v>
+        <v>32319082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -863,11 +863,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32319084</v>
+        <v>32319083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32319085</v>
+        <v>32319084</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32319086</v>
+        <v>32319085</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -923,11 +923,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32319087</v>
+        <v>32319086</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -943,11 +943,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32319088</v>
+        <v>32319087</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -963,11 +963,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32319089</v>
+        <v>32319088</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -983,11 +983,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32319090</v>
+        <v>32319089</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1003,11 +1003,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32319091</v>
+        <v>32319090</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>32319092</v>
+        <v>32319091</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>32319093</v>
+        <v>32319092</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1063,11 +1063,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>32319094</v>
+        <v>32319093</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1083,11 +1083,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>32319095</v>
+        <v>32319094</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1103,11 +1103,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32319096</v>
+        <v>32319095</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1123,11 +1123,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32319097</v>
+        <v>32319096</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1143,11 +1143,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32319098</v>
+        <v>32319097</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1163,11 +1163,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32319099</v>
+        <v>32319098</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>32319100</v>
+        <v>32319099</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1203,11 +1203,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>32319101</v>
+        <v>32319100</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1223,11 +1223,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>32319102</v>
+        <v>32319101</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1243,11 +1243,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32319103</v>
+        <v>32319102</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1263,11 +1263,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>32319104</v>
+        <v>32319103</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>32319105</v>
+        <v>32319104</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>32319106</v>
+        <v>32319105</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1323,11 +1323,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>32319107</v>
+        <v>32319106</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>32319108</v>
+        <v>32319107</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1363,11 +1363,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>32319109</v>
+        <v>32319108</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>32319110</v>
+        <v>32319109</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>32319111</v>
+        <v>32319110</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1423,11 +1423,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>32319112</v>
+        <v>32319111</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1443,11 +1443,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>32319113</v>
+        <v>32319112</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1463,11 +1463,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>32319114</v>
+        <v>32319113</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32319115</v>
+        <v>32319114</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32319116</v>
+        <v>32319115</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1523,11 +1523,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>32319117</v>
+        <v>32319116</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>32319118</v>
+        <v>32319117</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1563,11 +1563,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32319119</v>
+        <v>32319118</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>32319120</v>
+        <v>32319119</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1603,11 +1603,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>32319121</v>
+        <v>32319120</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>32319122</v>
+        <v>32319121</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1643,11 +1643,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>32319123</v>
+        <v>32319122</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>32319124</v>
+        <v>32319123</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>32319125</v>
+        <v>32319124</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1703,11 +1703,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>32319126</v>
+        <v>32319125</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1723,11 +1723,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>32319127</v>
+        <v>32319126</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>32319128</v>
+        <v>32319127</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1763,11 +1763,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>32319129</v>
+        <v>32319128</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>32319130</v>
+        <v>32319129</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1803,11 +1803,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>32319131</v>
+        <v>32319130</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32319132</v>
+        <v>32319131</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1843,11 +1843,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>32319133</v>
+        <v>32319132</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1863,11 +1863,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>32319134</v>
+        <v>32319133</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>32319135</v>
+        <v>32319134</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1903,11 +1903,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>32319136</v>
+        <v>32319135</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1923,11 +1923,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>32319137</v>
+        <v>32319136</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>32319138</v>
+        <v>32319137</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>32319139</v>
+        <v>32319138</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1983,11 +1983,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>32319140</v>
+        <v>32319139</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2003,11 +2003,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32319141</v>
+        <v>32319140</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2023,11 +2023,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>32319142</v>
+        <v>32319141</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2043,11 +2043,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>32319143</v>
+        <v>32319142</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>32319144</v>
+        <v>32319143</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2083,11 +2083,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>32319145</v>
+        <v>32319144</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>32319146</v>
+        <v>32319145</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>32319147</v>
+        <v>32319146</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2143,11 +2143,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>32319148</v>
+        <v>32319147</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2163,11 +2163,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>32319149</v>
+        <v>32319148</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2183,11 +2183,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>32319150</v>
+        <v>32319149</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2203,11 +2203,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>32319151</v>
+        <v>32319150</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2223,11 +2223,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>32319152</v>
+        <v>32319151</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>32319153</v>
+        <v>32319152</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2263,11 +2263,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>32319154</v>
+        <v>32319153</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>32319155</v>
+        <v>32319154</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>32319156</v>
+        <v>32319155</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>32319157</v>
+        <v>32319156</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2343,11 +2343,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>32319158</v>
+        <v>32319157</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>32319159</v>
+        <v>32319158</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2383,11 +2383,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>32319160</v>
+        <v>32319159</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2403,11 +2403,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>32319161</v>
+        <v>32319160</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>32319162</v>
+        <v>32319161</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2443,11 +2443,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>32319163</v>
+        <v>32319162</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>32319164</v>
+        <v>32319163</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2483,11 +2483,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>32319165</v>
+        <v>32319164</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>32319166</v>
+        <v>32319165</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2523,11 +2523,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>32319167</v>
+        <v>32319166</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2543,11 +2543,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>32319168</v>
+        <v>32319167</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2563,11 +2563,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>32319169</v>
+        <v>32319168</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>32319170</v>
+        <v>32319169</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>32319171</v>
+        <v>32319170</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2623,11 +2623,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>32319172</v>
+        <v>32319171</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>32319173</v>
+        <v>32319172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2663,11 +2663,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>32319174</v>
+        <v>32319173</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2683,11 +2683,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>32319175</v>
+        <v>32319174</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2703,11 +2703,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>32319176</v>
+        <v>32319175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2723,11 +2723,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>32319177</v>
+        <v>32319176</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2743,11 +2743,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>32319178</v>
+        <v>32319177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2763,11 +2763,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>32319179</v>
+        <v>32319178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>32319180</v>
+        <v>32319179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2803,11 +2803,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>32319181</v>
+        <v>32319180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>32319182</v>
+        <v>32319181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BRCA2_X3B</t>
+          <t>BRCA2_X3A</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>32319130</v>
+        <v>32319182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2863,11 +2863,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>32319131</v>
+        <v>32319130</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>32319132</v>
+        <v>32319131</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2903,11 +2903,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>32319133</v>
+        <v>32319132</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2923,11 +2923,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>32319134</v>
+        <v>32319133</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>32319135</v>
+        <v>32319134</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2963,11 +2963,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>32319136</v>
+        <v>32319135</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2983,11 +2983,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>32319137</v>
+        <v>32319136</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>32319138</v>
+        <v>32319137</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>32319139</v>
+        <v>32319138</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3043,11 +3043,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>32319140</v>
+        <v>32319139</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3063,11 +3063,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>32319141</v>
+        <v>32319140</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3083,11 +3083,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>32319142</v>
+        <v>32319141</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3103,11 +3103,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>32319143</v>
+        <v>32319142</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>32319144</v>
+        <v>32319143</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3143,11 +3143,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>32319145</v>
+        <v>32319144</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3163,11 +3163,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>32319146</v>
+        <v>32319145</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>32319147</v>
+        <v>32319146</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3203,11 +3203,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>32319148</v>
+        <v>32319147</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3223,11 +3223,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>32319149</v>
+        <v>32319148</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3243,11 +3243,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>32319150</v>
+        <v>32319149</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3263,11 +3263,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>32319151</v>
+        <v>32319150</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3283,11 +3283,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>32319152</v>
+        <v>32319151</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>32319153</v>
+        <v>32319152</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3323,11 +3323,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>32319154</v>
+        <v>32319153</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>32319155</v>
+        <v>32319154</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>32319156</v>
+        <v>32319155</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>32319157</v>
+        <v>32319156</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3403,11 +3403,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>32319158</v>
+        <v>32319157</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>32319159</v>
+        <v>32319158</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3443,11 +3443,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>32319160</v>
+        <v>32319159</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3463,11 +3463,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>32319161</v>
+        <v>32319160</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>32319162</v>
+        <v>32319161</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3503,11 +3503,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>32319163</v>
+        <v>32319162</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>32319164</v>
+        <v>32319163</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>32319165</v>
+        <v>32319164</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3563,11 +3563,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>32319166</v>
+        <v>32319165</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3583,11 +3583,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>32319167</v>
+        <v>32319166</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3603,11 +3603,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>32319168</v>
+        <v>32319167</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3623,11 +3623,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>32319169</v>
+        <v>32319168</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>32319170</v>
+        <v>32319169</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>32319171</v>
+        <v>32319170</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3683,11 +3683,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>32319172</v>
+        <v>32319171</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>32319173</v>
+        <v>32319172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3723,11 +3723,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>32319174</v>
+        <v>32319173</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>32319175</v>
+        <v>32319174</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3763,11 +3763,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>32319176</v>
+        <v>32319175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3783,11 +3783,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>32319177</v>
+        <v>32319176</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3803,11 +3803,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>32319178</v>
+        <v>32319177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3823,11 +3823,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>32319179</v>
+        <v>32319178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>32319180</v>
+        <v>32319179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3863,11 +3863,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>32319181</v>
+        <v>32319180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3883,11 +3883,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>32319182</v>
+        <v>32319181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>32319183</v>
+        <v>32319182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3923,11 +3923,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>32319184</v>
+        <v>32319183</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3943,11 +3943,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>32319185</v>
+        <v>32319184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3963,11 +3963,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>32319186</v>
+        <v>32319185</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>32319187</v>
+        <v>32319186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4003,11 +4003,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>32319188</v>
+        <v>32319187</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4023,11 +4023,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>32319189</v>
+        <v>32319188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4043,11 +4043,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>32319190</v>
+        <v>32319189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4063,11 +4063,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>32319191</v>
+        <v>32319190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4083,11 +4083,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>32319192</v>
+        <v>32319191</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4103,11 +4103,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>32319193</v>
+        <v>32319192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>32319194</v>
+        <v>32319193</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4143,11 +4143,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>32319195</v>
+        <v>32319194</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>32319196</v>
+        <v>32319195</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>32319197</v>
+        <v>32319196</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>32319198</v>
+        <v>32319197</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4223,11 +4223,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>32319199</v>
+        <v>32319198</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4243,11 +4243,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>32319200</v>
+        <v>32319199</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>32319201</v>
+        <v>32319200</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4283,11 +4283,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>32319202</v>
+        <v>32319201</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>32319203</v>
+        <v>32319202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4323,11 +4323,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>32319204</v>
+        <v>32319203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4343,11 +4343,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>32319205</v>
+        <v>32319204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4363,11 +4363,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>32319206</v>
+        <v>32319205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4383,11 +4383,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>32319207</v>
+        <v>32319206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4403,11 +4403,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>32319208</v>
+        <v>32319207</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4423,11 +4423,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>32319209</v>
+        <v>32319208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4443,11 +4443,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>32319210</v>
+        <v>32319209</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4463,11 +4463,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>32319211</v>
+        <v>32319210</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>32319212</v>
+        <v>32319211</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4503,11 +4503,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>32319213</v>
+        <v>32319212</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4523,11 +4523,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>32319214</v>
+        <v>32319213</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>32319215</v>
+        <v>32319214</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>32319216</v>
+        <v>32319215</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>32319217</v>
+        <v>32319216</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4603,11 +4603,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>32319218</v>
+        <v>32319217</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>32319219</v>
+        <v>32319218</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4643,11 +4643,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>32319220</v>
+        <v>32319219</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4663,11 +4663,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>32319221</v>
+        <v>32319220</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4683,11 +4683,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>32319222</v>
+        <v>32319221</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4703,11 +4703,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>32319223</v>
+        <v>32319222</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4723,11 +4723,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>32319224</v>
+        <v>32319223</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4743,11 +4743,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>32319225</v>
+        <v>32319224</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4763,11 +4763,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>32319226</v>
+        <v>32319225</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4783,11 +4783,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>32319227</v>
+        <v>32319226</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>32319228</v>
+        <v>32319227</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4823,11 +4823,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>32319229</v>
+        <v>32319228</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4843,11 +4843,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>32319230</v>
+        <v>32319229</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4863,11 +4863,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>32319231</v>
+        <v>32319230</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>32319232</v>
+        <v>32319231</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4903,11 +4903,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>32319233</v>
+        <v>32319232</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4923,11 +4923,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>32319234</v>
+        <v>32319233</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4943,11 +4943,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>32319235</v>
+        <v>32319234</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4963,11 +4963,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>32319236</v>
+        <v>32319235</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>32319237</v>
+        <v>32319236</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -5003,11 +5003,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>32319238</v>
+        <v>32319237</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5023,11 +5023,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>32319239</v>
+        <v>32319238</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -5043,11 +5043,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>32319240</v>
+        <v>32319239</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -5063,11 +5063,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>32319241</v>
+        <v>32319240</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -5083,11 +5083,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>32319242</v>
+        <v>32319241</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>32319243</v>
+        <v>32319242</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -5123,11 +5123,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>32319244</v>
+        <v>32319243</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -5143,11 +5143,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>32319245</v>
+        <v>32319244</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>32319246</v>
+        <v>32319245</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -5183,11 +5183,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>32319247</v>
+        <v>32319246</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -5203,11 +5203,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>32319248</v>
+        <v>32319247</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -5223,11 +5223,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>32319249</v>
+        <v>32319248</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -5238,16 +5238,16 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BRCA2_X3C</t>
+          <t>BRCA2_X3B</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>32319222</v>
+        <v>32319249</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -5263,11 +5263,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>32319223</v>
+        <v>32319222</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -5283,11 +5283,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>32319224</v>
+        <v>32319223</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -5303,11 +5303,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>32319225</v>
+        <v>32319224</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -5323,11 +5323,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>32319226</v>
+        <v>32319225</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>32319227</v>
+        <v>32319226</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>32319228</v>
+        <v>32319227</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -5383,11 +5383,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>32319229</v>
+        <v>32319228</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -5403,11 +5403,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>32319230</v>
+        <v>32319229</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -5423,11 +5423,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>32319231</v>
+        <v>32319230</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>32319232</v>
+        <v>32319231</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -5463,11 +5463,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>32319233</v>
+        <v>32319232</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5483,11 +5483,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>32319234</v>
+        <v>32319233</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5503,11 +5503,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>32319235</v>
+        <v>32319234</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5523,11 +5523,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>32319236</v>
+        <v>32319235</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5543,11 +5543,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>32319237</v>
+        <v>32319236</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5563,11 +5563,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>32319238</v>
+        <v>32319237</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>32319239</v>
+        <v>32319238</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5603,11 +5603,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>32319240</v>
+        <v>32319239</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5623,11 +5623,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>32319241</v>
+        <v>32319240</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5643,11 +5643,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>32319242</v>
+        <v>32319241</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>32319243</v>
+        <v>32319242</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5683,11 +5683,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>32319244</v>
+        <v>32319243</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>32319245</v>
+        <v>32319244</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>32319246</v>
+        <v>32319245</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5743,11 +5743,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>32319247</v>
+        <v>32319246</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5763,11 +5763,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>32319248</v>
+        <v>32319247</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5783,11 +5783,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>32319249</v>
+        <v>32319248</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5803,11 +5803,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>32319250</v>
+        <v>32319249</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5823,11 +5823,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>32319251</v>
+        <v>32319250</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>32319252</v>
+        <v>32319251</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5863,11 +5863,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>32319253</v>
+        <v>32319252</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5883,11 +5883,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>32319254</v>
+        <v>32319253</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>32319255</v>
+        <v>32319254</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5923,11 +5923,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>32319256</v>
+        <v>32319255</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5943,11 +5943,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>32319257</v>
+        <v>32319256</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>32319258</v>
+        <v>32319257</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5983,11 +5983,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>32319259</v>
+        <v>32319258</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -6003,11 +6003,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>32319260</v>
+        <v>32319259</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -6023,11 +6023,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>32319261</v>
+        <v>32319260</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -6043,11 +6043,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>32319262</v>
+        <v>32319261</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>32319263</v>
+        <v>32319262</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -6083,11 +6083,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>32319264</v>
+        <v>32319263</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -6103,11 +6103,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>32319265</v>
+        <v>32319264</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -6123,11 +6123,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>32319266</v>
+        <v>32319265</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>32319267</v>
+        <v>32319266</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -6163,11 +6163,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>32319268</v>
+        <v>32319267</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>32319269</v>
+        <v>32319268</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -6203,11 +6203,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>32319270</v>
+        <v>32319269</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -6223,11 +6223,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>32319271</v>
+        <v>32319270</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -6243,11 +6243,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>32319272</v>
+        <v>32319271</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -6263,11 +6263,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>32319273</v>
+        <v>32319272</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -6283,11 +6283,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>32319274</v>
+        <v>32319273</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -6303,11 +6303,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>32319275</v>
+        <v>32319274</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -6323,11 +6323,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>32319276</v>
+        <v>32319275</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -6343,11 +6343,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>32319277</v>
+        <v>32319276</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -6363,11 +6363,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>32319278</v>
+        <v>32319277</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -6383,11 +6383,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>32319279</v>
+        <v>32319278</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -6403,11 +6403,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>32319280</v>
+        <v>32319279</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>32319281</v>
+        <v>32319280</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>32319282</v>
+        <v>32319281</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -6463,11 +6463,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>32319283</v>
+        <v>32319282</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -6483,11 +6483,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>32319284</v>
+        <v>32319283</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -6503,11 +6503,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>32319285</v>
+        <v>32319284</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -6523,11 +6523,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>32319286</v>
+        <v>32319285</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -6543,11 +6543,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>32319287</v>
+        <v>32319286</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -6563,11 +6563,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>32319288</v>
+        <v>32319287</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6583,11 +6583,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>32319289</v>
+        <v>32319288</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6603,11 +6603,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>32319290</v>
+        <v>32319289</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6623,11 +6623,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>32319291</v>
+        <v>32319290</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6643,11 +6643,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>32319292</v>
+        <v>32319291</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>32319293</v>
+        <v>32319292</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6683,11 +6683,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>32319294</v>
+        <v>32319293</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6703,11 +6703,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>32319295</v>
+        <v>32319294</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6723,11 +6723,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>32319296</v>
+        <v>32319295</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6743,11 +6743,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>32319297</v>
+        <v>32319296</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>32319298</v>
+        <v>32319297</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>32319299</v>
+        <v>32319298</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6803,15 +6803,15 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>32319300</v>
+        <v>32319299</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -6823,15 +6823,15 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>32319301</v>
+        <v>32319300</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -6843,15 +6843,15 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>32319302</v>
+        <v>32319301</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -6863,15 +6863,15 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>32319303</v>
+        <v>32319302</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -6883,15 +6883,15 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>32319304</v>
+        <v>32319303</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -6903,15 +6903,15 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>32319305</v>
+        <v>32319304</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -6927,11 +6927,11 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>32319306</v>
+        <v>32319305</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -6943,15 +6943,15 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>32319307</v>
+        <v>32319306</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -6963,15 +6963,15 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>32319308</v>
+        <v>32319307</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -6983,15 +6983,15 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>32319309</v>
+        <v>32319308</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7003,15 +7003,15 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>32319310</v>
+        <v>32319309</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7023,15 +7023,15 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>32319311</v>
+        <v>32319310</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7043,15 +7043,15 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>32319312</v>
+        <v>32319311</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7063,15 +7063,15 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>32319313</v>
+        <v>32319312</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7083,15 +7083,15 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>32319314</v>
+        <v>32319313</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7103,15 +7103,15 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>32319315</v>
+        <v>32319314</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7123,15 +7123,15 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>32319316</v>
+        <v>32319315</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7143,15 +7143,15 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>32319317</v>
+        <v>32319316</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7163,15 +7163,15 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>32319318</v>
+        <v>32319317</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7183,15 +7183,15 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>32319319</v>
+        <v>32319318</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7203,15 +7203,15 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>32319320</v>
+        <v>32319319</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7223,15 +7223,15 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>32319321</v>
+        <v>32319320</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7243,15 +7243,15 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>32319322</v>
+        <v>32319321</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7263,15 +7263,15 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>32319323</v>
+        <v>32319322</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7283,15 +7283,15 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>32319324</v>
+        <v>32319323</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7303,15 +7303,15 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>32319325</v>
+        <v>32319324</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7323,15 +7323,15 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>32319326</v>
+        <v>32319325</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Intron</t>
+          <t>Exon</t>
         </is>
       </c>
     </row>
@@ -7343,11 +7343,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>32319327</v>
+        <v>32319326</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -7363,11 +7363,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>32319328</v>
+        <v>32319327</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -7383,11 +7383,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>32319329</v>
+        <v>32319328</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -7403,11 +7403,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>32319330</v>
+        <v>32319329</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -7423,11 +7423,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>32319331</v>
+        <v>32319330</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -7443,11 +7443,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>32319332</v>
+        <v>32319331</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -7463,11 +7463,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>32319333</v>
+        <v>32319332</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -7483,11 +7483,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>32319334</v>
+        <v>32319333</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>32319335</v>
+        <v>32319334</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -7523,11 +7523,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>g</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>32319336</v>
+        <v>32319335</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -7543,11 +7543,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>32319337</v>
+        <v>32319336</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>32319338</v>
+        <v>32319337</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -7583,11 +7583,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>32319339</v>
+        <v>32319338</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -7607,9 +7607,49 @@
         </is>
       </c>
       <c r="C359" t="n">
+        <v>32319339</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Intron</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>BRCA2_X3C</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
         <v>32319340</v>
       </c>
-      <c r="D359" t="inlineStr">
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Intron</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>BRCA2_X3C</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>32319341</v>
+      </c>
+      <c r="D361" t="inlineStr">
         <is>
           <t>Intron</t>
         </is>
